--- a/RegressionImmatricolati-anno.xlsx
+++ b/RegressionImmatricolati-anno.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raffa\OneDrive\Desktop\Università\Magistrale\Secondo anno\Big Data Engineering\KPMG\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D49E2CE-FFEC-4CB7-9776-DF152EBED7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8378BB0F-6D23-4F17-918D-5DF6D5C1640D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,6 +134,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE7E8AA"/>
+      <color rgb="FF4AADA8"/>
       <color rgb="FFFC3636"/>
       <color rgb="FF0C7C63"/>
     </mruColors>
@@ -289,7 +291,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FC3636"/>
+              <a:srgbClr val="4AADA8"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -298,6 +300,106 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-84C7-4F43-906E-F0FEF0894942}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-84C7-4F43-906E-F0FEF0894942}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-84C7-4F43-906E-F0FEF0894942}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-84C7-4F43-906E-F0FEF0894942}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-84C7-4F43-906E-F0FEF0894942}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$2:$A$17</c:f>
@@ -478,7 +580,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -498,30 +600,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1649877119"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1419,7 +1497,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
